--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014159.008466807</v>
+        <v>1036311.854486259</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2990033.635411732</v>
+        <v>3522967.675855584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10794469.2273961</v>
+        <v>10574672.29878194</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>312.8333289708659</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>243.9223155524618</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>248.0596779397534</v>
       </c>
       <c r="V4" t="n">
-        <v>94.63926978364057</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>199.8692462101356</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.62666189519208</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>89.25906081820715</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>88.79961506820023</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.19029374363589</v>
+        <v>146.6850513083905</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>28.35435780800531</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>223.0318122523339</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>184.0807461401145</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>289.4991299757983</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>101.5975477744925</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>252.6300601913974</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.06315333293485</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>173.9898110906263</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>119.7406709917015</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065117</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>190.7955476484028</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>74.18424749821686</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>24.1470067486599</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>122.623872902726</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.2016970059605</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>29.3220157029459</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5699139661928938</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.0917728165956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>83.27922581974995</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>46.47031367429594</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7539405631286</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>253.4345021185962</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850.7171392082162</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="C2" t="n">
-        <v>850.7171392082162</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="D2" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2000.922069509229</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2000.922069509229</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.922069509229</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>1627.45631124815</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1237.316979272338</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1470.569074795015</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1470.569074795015</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
         <v>1268.68094731003</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.352320482495</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="D8" t="n">
-        <v>857.0866218757444</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="E8" t="n">
-        <v>471.2983692775002</v>
+        <v>554.6254674869419</v>
       </c>
       <c r="F8" t="n">
-        <v>471.2983692775002</v>
+        <v>143.6395626973344</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>143.6395626973344</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>1240.846680926022</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>871.8841639856103</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>513.6184653788598</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>484.9776999162282</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>666.0988071604022</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095569</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.88315384072</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>2743.82026649715</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2391.051611227035</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>2017.585852965955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>1627.446520990144</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>232.0072486300716</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>736.3687884961898</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1376.914137963294</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2050.119830216076</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2209.632142884837</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.1954542207687</v>
+        <v>706.3378641394476</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>537.4016812115407</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>537.4016812115407</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>389.4885876291476</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="W13" t="n">
-        <v>962.6364981945386</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="X13" t="n">
-        <v>962.6364981945386</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.8439190510085</v>
+        <v>887.9863289696873</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>666.0988071604017</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.789894598741</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3484.789894598741</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3484.789894598741</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3132.021239328627</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3132.021239328627</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2839.597875716709</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>141.5996147899774</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>645.9611546560957</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1286.5065041232</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1959.712196375982</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2509.148205128705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.4001231459582</v>
+        <v>390.5117337136303</v>
       </c>
       <c r="C16" t="n">
-        <v>816.4639402180513</v>
+        <v>390.5117337136303</v>
       </c>
       <c r="D16" t="n">
-        <v>666.3473008057156</v>
+        <v>390.5117337136303</v>
       </c>
       <c r="E16" t="n">
-        <v>518.4342072233225</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>866.4861918383699</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>866.4861918383699</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>866.4861918383699</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>866.4861918383699</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>611.3043128571604</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>611.3043128571604</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.048587976198</v>
+        <v>390.5117337136303</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341669</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550789</v>
       </c>
       <c r="W19" t="n">
-        <v>898.5039869983193</v>
+        <v>441.9005583181183</v>
       </c>
       <c r="X19" t="n">
-        <v>898.5039869983193</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>898.5039869983193</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1377.966097839012</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1154.180682628518</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,19 +6001,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1306.193495155475</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1423.98268722637</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1200.197272015876</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1200.197272015876</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1200.197272015876</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>910.7801019789154</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>910.7801019789154</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>910.7801019789154</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1474.525354650165</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1185.396715863723</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>542.1367719529251</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.053772676361</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.21084526296</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X34" t="n">
-        <v>847.2212943649431</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y34" t="n">
-        <v>723.7852367831648</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,10 +6961,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7134,13 +7134,13 @@
         <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>441.900558318119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>441.900558318119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
         <v>265.3924131404652</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.130855347408</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>758.0126656629491</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C43" t="n">
-        <v>589.0764827350422</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D43" t="n">
-        <v>438.9598433227064</v>
+        <v>349.5128432614248</v>
       </c>
       <c r="E43" t="n">
-        <v>291.0467497403133</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>144.156802242403</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X43" t="n">
-        <v>758.0126656629491</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y43" t="n">
-        <v>758.0126656629491</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.6898113736385</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y46" t="n">
-        <v>1054.338276203878</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
   </sheetData>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>91.32084226272133</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>15.92129162592936</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>176.7176547498465</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>87.16935584025435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>41.84971264981704</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>7.301851955827487</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22761,13 +22761,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>38.22219630222429</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>154.8137954105473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22840,13 +22840,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>345.614306822221</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457181</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22962,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,10 +22998,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>324.5251092025878</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>235.1231576961569</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23077,7 +23077,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111.6416864383014</v>
+        <v>33.14692887354676</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23241,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>353.5760122642565</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,13 +23433,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>63.49118608425707</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>34.50390721198031</v>
       </c>
     </row>
     <row r="14">
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>96.73880868025532</v>
       </c>
     </row>
     <row r="15">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>43.82350024843875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>33.89293814519363</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160.7688268490024</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>51.71984429841089</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>78.18013899190179</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>30.75201340998649</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7365624853864</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>197.4005543097293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>75.29693708087721</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.38295634613428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>117.1119469436233</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>282.8896567338145</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.0455590520195</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.492880535499154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.15473682681922</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>120.0232547890816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>6.492880535499211</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993665.8861845452</v>
+        <v>867621.1222624927</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993665.8861845452</v>
+        <v>867621.1222624927</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993665.8861845451</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
+        <v>354622.4384779897</v>
+      </c>
+      <c r="F2" t="n">
+        <v>354622.4384779897</v>
+      </c>
+      <c r="G2" t="n">
         <v>410580.5127245942</v>
       </c>
-      <c r="F2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>410580.5127245943</v>
-      </c>
       <c r="H2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="L2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="M2" t="n">
+        <v>410580.5127245944</v>
+      </c>
+      <c r="N2" t="n">
         <v>410580.5127245943</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410580.5127245944</v>
       </c>
       <c r="O2" t="n">
         <v>410580.5127245944</v>
       </c>
       <c r="P2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>248146.7686188438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659089</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>62453.05588965323</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991083</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>44802.6561755686</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="E4" t="n">
+        <v>40808.29226915611</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40808.29226915611</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="H4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773396</v>
-      </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773396</v>
@@ -26456,7 +26456,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>69171.54328360147</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69171.54328360147</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420087.7866827965</v>
+        <v>-414626.2143115589</v>
       </c>
       <c r="C6" t="n">
-        <v>169880.0925317481</v>
+        <v>175341.6649029855</v>
       </c>
       <c r="D6" t="n">
-        <v>169880.0925317481</v>
+        <v>175341.6649029854</v>
       </c>
       <c r="E6" t="n">
-        <v>-243973.9244784741</v>
+        <v>-3868.091839805783</v>
       </c>
       <c r="F6" t="n">
-        <v>281186.1119984221</v>
+        <v>244278.676779038</v>
       </c>
       <c r="G6" t="n">
-        <v>281186.1119984221</v>
+        <v>18300.35486626251</v>
       </c>
       <c r="H6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321714</v>
       </c>
       <c r="I6" t="n">
-        <v>281186.1119984219</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="J6" t="n">
-        <v>104762.8928058292</v>
+        <v>105640.0249395786</v>
       </c>
       <c r="K6" t="n">
-        <v>281186.1119984222</v>
+        <v>282063.2441321715</v>
       </c>
       <c r="L6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="M6" t="n">
-        <v>146385.0967645849</v>
+        <v>219610.1882425184</v>
       </c>
       <c r="N6" t="n">
-        <v>281186.1119984222</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="O6" t="n">
-        <v>281186.1119984222</v>
+        <v>212198.3592822609</v>
       </c>
       <c r="P6" t="n">
-        <v>281186.1119984222</v>
+        <v>282063.2441321716</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>593.4761003380645</v>
+      </c>
+      <c r="F3" t="n">
+        <v>593.4761003380645</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054540999</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>215.7324361209778</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160354</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708154</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708151</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708154</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>159.611569195405</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>647.0155045122267</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>68.29072693268367</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>647.0155045122267</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>125.7087941787562</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560241</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003125</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>237.7447944281936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
